--- a/data_table/SkillTrack.xlsx
+++ b/data_table/SkillTrack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,8 @@
           </rPr>
           <t xml:space="preserve">
 0 无
-1 施法者 到 技能点 的方向</t>
+1 施法者 到 技能点 的方向
+</t>
         </r>
       </text>
     </comment>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -342,6 +343,33 @@
   </si>
   <si>
     <t>15008201</t>
+  </si>
+  <si>
+    <t>怪物 技能1 矩形 轨迹</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>怪物 技能2 矩形 轨迹</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>大怪 1 技能 圆形 轨迹</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>15008202</t>
   </si>
 </sst>
 </file>
@@ -507,12 +535,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1377,12 +1405,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1637,35 +1665,111 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" customFormat="1" spans="3:16">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" customFormat="1" spans="3:16">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
+    <row r="8" customFormat="1" spans="1:17">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2500010</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:17">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2500011</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" customFormat="1" spans="3:16">
       <c r="C10" s="6"/>
@@ -1697,67 +1801,135 @@
       <c r="O11" s="3"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" customFormat="1" spans="3:16">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="6:16">
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+    <row r="12" customFormat="1" spans="1:17">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2500020</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="3:16">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="14"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="18" customFormat="1" spans="4:16">
+    <row r="14" customFormat="1" spans="3:16">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="6:16">
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="6"/>
+    </row>
+    <row r="20" customFormat="1" spans="4:16">
       <c r="D20" s="6"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/SkillTrack.xlsx
+++ b/data_table/SkillTrack.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -348,25 +348,19 @@
     <t>怪物 技能1 矩形 轨迹</t>
   </si>
   <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>3000</t>
+    <t>4000</t>
   </si>
   <si>
     <t>怪物 技能2 矩形 轨迹</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>8000</t>
   </si>
   <si>
     <t>大怪 1 技能 圆形 轨迹</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>8000</t>
   </si>
   <si>
     <t>15008202</t>
@@ -1410,7 +1404,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1697,7 +1691,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>38</v>
@@ -1726,10 +1720,10 @@
         <v>2500011</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1747,7 +1741,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>40</v>
@@ -1809,16 +1803,16 @@
         <v>2500020</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>38</v>
@@ -1830,10 +1824,10 @@
         <v>37</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>38</v>
@@ -1845,7 +1839,7 @@
         <v>38</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>37</v>
